--- a/biology/Zoologie/Chlorothraupis/Chlorothraupis.xlsx
+++ b/biology/Zoologie/Chlorothraupis/Chlorothraupis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Chlorothraupis regroupe quatre espèces de passereaux de la famille des Cardinalidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les recherches phylogénétiques de Burns et al. (2003)[1] et Klika et al. (2007)[2] ont démontré que les espèces du genre Chlorothraupis étaient des Cardinalidae et non des Thraupidae.
-Ce changement de taxinomie a déjà été avalisé par l'American Ornithologists' Union en 2008[3], ce qui a amené le CINFO (2010) à leur attribuer le nouveau nom normalisé de « Habia », qu'elles partagent avec les espèces du genre Habia[4]. Le Congrès ornithologique international (COI) a suivi cette taxinomie en 2012.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les recherches phylogénétiques de Burns et al. (2003) et Klika et al. (2007) ont démontré que les espèces du genre Chlorothraupis étaient des Cardinalidae et non des Thraupidae.
+Ce changement de taxinomie a déjà été avalisé par l'American Ornithologists' Union en 2008, ce qui a amené le CINFO (2010) à leur attribuer le nouveau nom normalisé de « Habia », qu'elles partagent avec les espèces du genre Habia. Le Congrès ornithologique international (COI) a suivi cette taxinomie en 2012.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 5.2, 2015)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 5.2, 2015) :
 Chlorothraupis carmioli – Habia de Carmiol
 Chlorothraupis frenata – Habia bridé
 Chlorothraupis olivacea – Habia à lunettes
